--- a/data/trans_dic/P10_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P10_1_R-Habitat-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 7,63</t>
+          <t>0,9; 7,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,6; 12,3</t>
+          <t>3,43; 12,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 11,72</t>
+          <t>2,18; 11,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,24; 12,4</t>
+          <t>2,33; 11,18</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 11,46</t>
+          <t>3,24; 12,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,95; 20,78</t>
+          <t>7,99; 21,6</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,8; 21,74</t>
+          <t>8,3; 21,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>8,19; 16,87</t>
+          <t>8,51; 16,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,55; 8,04</t>
+          <t>2,42; 7,98</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,61; 14,71</t>
+          <t>6,98; 14,92</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,88; 13,83</t>
+          <t>5,91; 13,97</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,75; 12,75</t>
+          <t>6,27; 12,6</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,09; 6,46</t>
+          <t>3,21; 6,49</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 9,15</t>
+          <t>4,84; 9,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,24; 8,43</t>
+          <t>4,11; 8,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,99; 8,46</t>
+          <t>4,29; 8,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,77; 8,74</t>
+          <t>4,86; 9,08</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,26; 18,29</t>
+          <t>12,54; 18,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,93; 15,56</t>
+          <t>9,69; 15,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,78; 12,79</t>
+          <t>8,76; 12,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,48; 7,12</t>
+          <t>4,32; 7,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,21; 12,98</t>
+          <t>9,22; 13,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,6; 11,08</t>
+          <t>7,56; 10,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,02; 9,9</t>
+          <t>6,9; 9,68</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,55; 7,74</t>
+          <t>4,66; 7,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,43; 10,16</t>
+          <t>6,46; 10,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,62; 6,39</t>
+          <t>3,8; 6,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 6,67</t>
+          <t>3,92; 6,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,9; 9,49</t>
+          <t>5,98; 9,58</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,51; 18,44</t>
+          <t>13,7; 18,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,87; 14,12</t>
+          <t>10,19; 14,65</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>9,53; 13,12</t>
+          <t>9,56; 12,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,61; 7,9</t>
+          <t>5,63; 7,99</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,47; 13,4</t>
+          <t>10,51; 13,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,36; 9,99</t>
+          <t>7,34; 9,92</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>7,06; 9,4</t>
+          <t>7,16; 9,44</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,51; 9,63</t>
+          <t>5,5; 9,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,91; 7,45</t>
+          <t>3,86; 7,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,31; 8,15</t>
+          <t>4,27; 8,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,69; 11,64</t>
+          <t>6,72; 11,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,98; 15,9</t>
+          <t>11,04; 16,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,72; 15,75</t>
+          <t>10,99; 15,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,72; 15,62</t>
+          <t>10,59; 15,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,53; 13,31</t>
+          <t>6,86; 13,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,8; 12,12</t>
+          <t>8,75; 12,02</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,87; 11,02</t>
+          <t>7,89; 11,08</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,96; 11,05</t>
+          <t>8,06; 11,28</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,64; 11,59</t>
+          <t>7,76; 11,74</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,87; 8,21</t>
+          <t>4,98; 8,17</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,75; 9,29</t>
+          <t>5,74; 9,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,91; 9,5</t>
+          <t>5,93; 9,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,37; 7,58</t>
+          <t>4,42; 7,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,71; 12,44</t>
+          <t>8,64; 12,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,28; 16,67</t>
+          <t>12,15; 16,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,31; 13,66</t>
+          <t>9,55; 13,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,26; 15,66</t>
+          <t>11,26; 15,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,27; 9,86</t>
+          <t>7,26; 9,83</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,66; 12,62</t>
+          <t>9,69; 12,47</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,28; 11,0</t>
+          <t>8,36; 11,03</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,49; 11,12</t>
+          <t>8,61; 11,3</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,25; 6,93</t>
+          <t>5,29; 6,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,28; 8,18</t>
+          <t>6,27; 8,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,26; 6,95</t>
+          <t>5,28; 6,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,35; 7,13</t>
+          <t>5,39; 7,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,41; 10,46</t>
+          <t>8,56; 10,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,61; 15,89</t>
+          <t>13,39; 15,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,96; 13,47</t>
+          <t>11,09; 13,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>10,36; 12,72</t>
+          <t>10,25; 12,71</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,11; 8,48</t>
+          <t>7,09; 8,42</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,2; 11,76</t>
+          <t>10,19; 11,76</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,5; 9,9</t>
+          <t>8,55; 9,91</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>8,32; 9,82</t>
+          <t>8,35; 9,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P10_1_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P10_1_R-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 7,65</t>
+          <t>0,92; 8,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,43; 12,48</t>
+          <t>3,46; 12,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,18; 11,05</t>
+          <t>2,25; 11,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,24; 12,95</t>
+          <t>2,53; 11,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,99; 21,6</t>
+          <t>7,68; 21,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,3; 21,51</t>
+          <t>8,01; 21,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 7,98</t>
+          <t>2,57; 8,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>6,98; 14,92</t>
+          <t>6,98; 14,98</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>5,91; 13,97</t>
+          <t>6,12; 14,66</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,21; 6,49</t>
+          <t>3,12; 6,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,84; 9,14</t>
+          <t>4,62; 9,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,11; 8,15</t>
+          <t>4,17; 8,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,86; 9,08</t>
+          <t>4,99; 9,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,54; 18,53</t>
+          <t>12,6; 18,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,69; 15,3</t>
+          <t>9,95; 15,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,05</t>
+          <t>4,39; 7,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,22; 13,04</t>
+          <t>9,33; 13,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>7,56; 10,99</t>
+          <t>7,55; 11,22</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,66; 7,59</t>
+          <t>4,54; 7,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,46; 10,36</t>
+          <t>6,58; 10,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 6,52</t>
+          <t>3,79; 6,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,98; 9,58</t>
+          <t>5,95; 9,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,7; 18,35</t>
+          <t>13,45; 18,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,19; 14,65</t>
+          <t>10,13; 14,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,63; 7,99</t>
+          <t>5,67; 8,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,51; 13,61</t>
+          <t>10,45; 13,55</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,34; 9,92</t>
+          <t>7,3; 9,95</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,5; 9,57</t>
+          <t>5,47; 9,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,86; 7,7</t>
+          <t>3,78; 7,55</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,27; 8,05</t>
+          <t>4,37; 8,01</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,04; 16,17</t>
+          <t>10,98; 15,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,99; 15,97</t>
+          <t>10,74; 15,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,59; 15,55</t>
+          <t>10,82; 15,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>8,75; 12,02</t>
+          <t>8,85; 12,3</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,89; 11,08</t>
+          <t>7,87; 10,92</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>8,06; 11,28</t>
+          <t>8,14; 11,32</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,98; 8,17</t>
+          <t>5,11; 8,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,74; 9,05</t>
+          <t>5,71; 9,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,93; 9,48</t>
+          <t>5,82; 9,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,64; 12,28</t>
+          <t>8,68; 12,3</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,15; 16,52</t>
+          <t>12,24; 16,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,55; 13,7</t>
+          <t>9,38; 13,58</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,26; 9,83</t>
+          <t>7,4; 9,76</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,69; 12,47</t>
+          <t>9,68; 12,67</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,36; 11,03</t>
+          <t>8,27; 11,0</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>5,29; 6,93</t>
+          <t>5,26; 6,92</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,27; 8,11</t>
+          <t>6,27; 8,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,28; 6,91</t>
+          <t>5,3; 6,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,56; 10,53</t>
+          <t>8,46; 10,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,39; 15,85</t>
+          <t>13,46; 15,91</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>11,09; 13,35</t>
+          <t>10,96; 13,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,09; 8,42</t>
+          <t>7,18; 8,49</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,55; 9,91</t>
+          <t>8,52; 10,05</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
